--- a/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296BA88-440E-4A87-98FF-EFF4ABD5A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C055EC-E50E-4FDC-BCD2-ED9E20FABAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
   <si>
     <t>PERIOD</t>
   </si>
@@ -611,6 +611,24 @@
   </si>
   <si>
     <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>9/28 , 10/2/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/19,20,24/2023</t>
+  </si>
+  <si>
+    <t>10/11-13/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>10/25-27,31 - 11/3/2023</t>
   </si>
 </sst>
 </file>
@@ -3011,8 +3029,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K248" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K248" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K253" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K253" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3390,12 +3408,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K248"/>
+  <dimension ref="A2:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A56" activePane="bottomLeft"/>
+      <pane ySplit="3672" topLeftCell="A242" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3560,7 +3578,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.160000000000025</v>
+        <v>27.910000000000025</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3570,7 +3588,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.75</v>
+        <v>33.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8754,13 +8772,15 @@
       <c r="B240" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C240" s="13"/>
+      <c r="C240" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G240" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H240" s="39">
         <v>1</v>
@@ -8794,10 +8814,10 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B242" s="20"/>
+      <c r="A242" s="40"/>
+      <c r="B242" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39"/>
       <c r="E242" s="9"/>
@@ -8806,34 +8826,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H242" s="39"/>
+      <c r="H242" s="39">
+        <v>2</v>
+      </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
+      <c r="K242" s="48" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B243" s="20"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C243" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D243" s="39">
+        <v>3</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G243" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
+      <c r="K243" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A244" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B244" s="20"/>
+      <c r="A244" s="40"/>
+      <c r="B244" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
@@ -8842,18 +8874,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H244" s="39"/>
+      <c r="H244" s="39">
+        <v>3</v>
+      </c>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="20"/>
+      <c r="K244" s="20" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B245" s="20"/>
+      <c r="A245" s="40"/>
+      <c r="B245" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="C245" s="13"/>
-      <c r="D245" s="39"/>
+      <c r="D245" s="39">
+        <v>5</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
       <c r="G245" s="13" t="str">
@@ -8863,31 +8901,41 @@
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20"/>
+      <c r="K245" s="20" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B246" s="20"/>
-      <c r="C246" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H246" s="39"/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H246" s="39">
+        <v>1</v>
+      </c>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="20"/>
+      <c r="K246" s="48">
+        <v>45239</v>
+      </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B247" s="20"/>
+      <c r="A247" s="40"/>
+      <c r="B247" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
@@ -8896,26 +8944,124 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H247" s="39"/>
+      <c r="H247" s="39">
+        <v>1</v>
+      </c>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
-      <c r="K247" s="20"/>
+      <c r="K247" s="48">
+        <v>45247</v>
+      </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248" s="49"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="41"/>
-      <c r="D248" s="42"/>
+      <c r="A248" s="40"/>
+      <c r="B248" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39"/>
       <c r="E248" s="9"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="41" t="str">
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H248" s="42"/>
+      <c r="H248" s="39">
+        <v>1</v>
+      </c>
       <c r="I248" s="9"/>
-      <c r="J248" s="12"/>
-      <c r="K248" s="15"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="48">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B249" s="20"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H249" s="39"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="20"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" s="20"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H250" s="39"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="20"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="39"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="49"/>
+      <c r="B253" s="15"/>
+      <c r="C253" s="41"/>
+      <c r="D253" s="42"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H253" s="42"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="12"/>
+      <c r="K253" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
